--- a/Team-Data/2011-12/2-13-2011-12.xlsx
+++ b/Team-Data/2011-12/2-13-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>3.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
@@ -762,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>12</v>
@@ -780,13 +847,13 @@
         <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS2" t="n">
         <v>12</v>
@@ -798,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="AV2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>3.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="n">
         <v>18</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
         <v>28</v>
@@ -983,7 +1050,7 @@
         <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -1030,61 +1097,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>0.107</v>
+        <v>0.111</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="J4" t="n">
-        <v>80.7</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
         <v>0.414</v>
       </c>
       <c r="L4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.297</v>
+        <v>0.292</v>
       </c>
       <c r="O4" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="P4" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="Q4" t="n">
         <v>0.736</v>
       </c>
       <c r="R4" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T4" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U4" t="n">
         <v>19.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
         <v>5.7</v>
@@ -1099,16 +1166,16 @@
         <v>19.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-14.4</v>
+        <v>-14.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,13 +1187,13 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
@@ -1138,22 +1205,22 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>23</v>
       </c>
       <c r="AP4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>21</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>22</v>
-      </c>
       <c r="AR4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1162,13 +1229,13 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
@@ -1177,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
         <v>5</v>
@@ -1341,16 +1408,16 @@
         <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
         <v>20</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -1472,28 +1539,28 @@
         <v>-3.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF6" t="n">
         <v>23</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>20</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>13</v>
@@ -1517,10 +1584,10 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
         <v>18</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.621</v>
+        <v>0.607</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
@@ -1594,7 +1661,7 @@
         <v>35.9</v>
       </c>
       <c r="J7" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K7" t="n">
         <v>0.442</v>
@@ -1603,40 +1670,40 @@
         <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="N7" t="n">
         <v>0.326</v>
       </c>
       <c r="O7" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P7" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R7" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S7" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="T7" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U7" t="n">
         <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Y7" t="n">
         <v>4.4</v>
@@ -1645,7 +1712,7 @@
         <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB7" t="n">
         <v>94.7</v>
@@ -1654,10 +1721,10 @@
         <v>3.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1666,13 +1733,13 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
         <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>16</v>
@@ -1684,31 +1751,31 @@
         <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AU7" t="n">
         <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1723,7 +1790,7 @@
         <v>15</v>
       </c>
       <c r="BA7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1851,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1881,7 +1948,7 @@
         <v>29</v>
       </c>
       <c r="AS8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2100,7 @@
         <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ9" t="n">
         <v>26</v>
@@ -2054,13 +2121,13 @@
         <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>6</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
         <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>0.44</v>
+        <v>0.417</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,64 +2207,64 @@
         <v>38</v>
       </c>
       <c r="J10" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.465</v>
       </c>
       <c r="L10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N10" t="n">
         <v>0.396</v>
       </c>
       <c r="O10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P10" t="n">
         <v>20.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.738</v>
+        <v>0.735</v>
       </c>
       <c r="R10" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="S10" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T10" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U10" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X10" t="n">
         <v>5.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="AA10" t="n">
         <v>17.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.1</v>
+        <v>-1.4</v>
       </c>
       <c r="AD10" t="n">
         <v>30</v>
@@ -2209,16 +2276,16 @@
         <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
         <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>4</v>
@@ -2233,16 +2300,16 @@
         <v>1</v>
       </c>
       <c r="AO10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR10" t="n">
         <v>26</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>24</v>
       </c>
       <c r="AS10" t="n">
         <v>24</v>
@@ -2251,7 +2318,7 @@
         <v>27</v>
       </c>
       <c r="AU10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV10" t="n">
         <v>13</v>
@@ -2263,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ10" t="n">
         <v>29</v>
@@ -2275,7 +2342,7 @@
         <v>4</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>11</v>
@@ -2397,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="AI11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
         <v>1</v>
@@ -2412,7 +2479,7 @@
         <v>10</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2421,10 +2488,10 @@
         <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS11" t="n">
         <v>10</v>
@@ -2436,13 +2503,13 @@
         <v>13</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
         <v>17</v>
       </c>
       <c r="AX11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>7</v>
@@ -2579,13 +2646,13 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
         <v>23</v>
@@ -2618,7 +2685,7 @@
         <v>27</v>
       </c>
       <c r="AV12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -2668,34 +2735,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>0.654</v>
+        <v>0.68</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J13" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="K13" t="n">
         <v>0.46</v>
       </c>
       <c r="L13" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M13" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="N13" t="n">
         <v>0.356</v>
@@ -2707,55 +2774,55 @@
         <v>25</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.676</v>
+        <v>0.678</v>
       </c>
       <c r="R13" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S13" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="T13" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="U13" t="n">
         <v>22</v>
       </c>
       <c r="V13" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="W13" t="n">
         <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z13" t="n">
         <v>21.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>4</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2764,7 +2831,7 @@
         <v>9</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
         <v>7</v>
@@ -2791,16 +2858,16 @@
         <v>15</v>
       </c>
       <c r="AS13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AT13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW13" t="n">
         <v>12</v>
@@ -2809,10 +2876,10 @@
         <v>11</v>
       </c>
       <c r="AY13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>1.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>11</v>
@@ -2970,10 +3037,10 @@
         <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>0.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3122,7 +3189,7 @@
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
@@ -3155,22 +3222,22 @@
         <v>4</v>
       </c>
       <c r="AS15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
         <v>25</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>25</v>
@@ -3185,7 +3252,7 @@
         <v>22</v>
       </c>
       <c r="BC15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
         <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.759</v>
+        <v>0.75</v>
       </c>
       <c r="H16" t="n">
         <v>48.9</v>
       </c>
       <c r="I16" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J16" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.485</v>
+        <v>0.483</v>
       </c>
       <c r="L16" t="n">
         <v>5.7</v>
@@ -3244,25 +3311,25 @@
         <v>14.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.392</v>
+        <v>0.388</v>
       </c>
       <c r="O16" t="n">
         <v>20.9</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="S16" t="n">
         <v>32.9</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U16" t="n">
         <v>20.9</v>
@@ -3274,7 +3341,7 @@
         <v>8.6</v>
       </c>
       <c r="X16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y16" t="n">
         <v>4.2</v>
@@ -3286,13 +3353,13 @@
         <v>22</v>
       </c>
       <c r="AB16" t="n">
-        <v>103.4</v>
+        <v>103</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>2</v>
@@ -3310,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3322,7 +3389,7 @@
         <v>24</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
@@ -3352,10 +3419,10 @@
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -3396,148 +3463,148 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
         <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.429</v>
+        <v>0.444</v>
       </c>
       <c r="H17" t="n">
         <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J17" t="n">
         <v>84</v>
       </c>
       <c r="K17" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L17" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="O17" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P17" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.788</v>
+        <v>0.786</v>
       </c>
       <c r="R17" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="T17" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U17" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V17" t="n">
         <v>14.5</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X17" t="n">
         <v>5.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.7</v>
+        <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG17" t="n">
         <v>20</v>
       </c>
-      <c r="AG17" t="n">
-        <v>21</v>
-      </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
         <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS17" t="n">
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>8</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX17" t="n">
         <v>14</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
@@ -3549,7 +3616,7 @@
         <v>15</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>0.448</v>
+        <v>0.464</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3599,7 +3666,7 @@
         <v>80.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.428</v>
+        <v>0.429</v>
       </c>
       <c r="L18" t="n">
         <v>6.5</v>
@@ -3608,76 +3675,76 @@
         <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>0.325</v>
+        <v>0.327</v>
       </c>
       <c r="O18" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="P18" t="n">
         <v>26.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.768</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
         <v>12.1</v>
       </c>
       <c r="S18" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T18" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="U18" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="V18" t="n">
         <v>16.4</v>
       </c>
       <c r="W18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="n">
         <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>18</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
         <v>15</v>
@@ -3686,7 +3753,7 @@
         <v>11</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3695,13 +3762,13 @@
         <v>4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS18" t="n">
         <v>7</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>6</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3713,7 +3780,7 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3731,7 +3798,7 @@
         <v>11</v>
       </c>
       <c r="BC18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -3853,10 +3920,10 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -3942,67 +4009,67 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>0.179</v>
+        <v>0.148</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J20" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.44</v>
       </c>
       <c r="L20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M20" t="n">
         <v>12.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.292</v>
+        <v>0.293</v>
       </c>
       <c r="O20" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P20" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.737</v>
+        <v>0.74</v>
       </c>
       <c r="R20" t="n">
         <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V20" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y20" t="n">
         <v>5.5</v>
@@ -4011,16 +4078,16 @@
         <v>20.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="AB20" t="n">
         <v>87.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.8</v>
+        <v>-6.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>29</v>
@@ -4032,7 +4099,7 @@
         <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4050,22 +4117,22 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR20" t="n">
         <v>14</v>
       </c>
       <c r="AS20" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4080,7 +4147,7 @@
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>0.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
@@ -4217,13 +4284,13 @@
         <v>14</v>
       </c>
       <c r="AI21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK21" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>10</v>
@@ -4262,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY21" t="n">
         <v>13</v>
@@ -4277,7 +4344,7 @@
         <v>13</v>
       </c>
       <c r="BC21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>4.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4426,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>28</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
         <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>0.621</v>
+        <v>0.607</v>
       </c>
       <c r="H23" t="n">
         <v>48.5</v>
       </c>
       <c r="I23" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="J23" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K23" t="n">
         <v>0.433</v>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M23" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="N23" t="n">
         <v>0.387</v>
@@ -4524,16 +4591,16 @@
         <v>16.4</v>
       </c>
       <c r="P23" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.656</v>
+        <v>0.651</v>
       </c>
       <c r="R23" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S23" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T23" t="n">
         <v>43.1</v>
@@ -4542,13 +4609,13 @@
         <v>19.9</v>
       </c>
       <c r="V23" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
         <v>4.4</v>
@@ -4557,19 +4624,19 @@
         <v>18.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
         <v>9</v>
@@ -4578,10 +4645,10 @@
         <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
@@ -4614,22 +4681,22 @@
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX23" t="n">
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ23" t="n">
         <v>5</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -4670,97 +4737,97 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
         <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.679</v>
       </c>
       <c r="H24" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I24" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J24" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L24" t="n">
         <v>6.1</v>
       </c>
       <c r="M24" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.387</v>
+        <v>0.39</v>
       </c>
       <c r="O24" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="P24" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.722</v>
+        <v>0.717</v>
       </c>
       <c r="R24" t="n">
         <v>9.6</v>
       </c>
       <c r="S24" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T24" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U24" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V24" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="W24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y24" t="n">
         <v>4.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="AA24" t="n">
         <v>17.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC24" t="n">
         <v>9.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
       </c>
       <c r="AF24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="n">
         <v>17</v>
@@ -4778,7 +4845,7 @@
         <v>20</v>
       </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,19 +4860,19 @@
         <v>28</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>11</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
         <v>22</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="n">
         <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.429</v>
+        <v>0.444</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J25" t="n">
         <v>80.8</v>
@@ -4876,13 +4943,13 @@
         <v>0.448</v>
       </c>
       <c r="L25" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M25" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.344</v>
+        <v>0.351</v>
       </c>
       <c r="O25" t="n">
         <v>14.2</v>
@@ -4894,7 +4961,7 @@
         <v>0.771</v>
       </c>
       <c r="R25" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S25" t="n">
         <v>31</v>
@@ -4903,13 +4970,13 @@
         <v>41</v>
       </c>
       <c r="U25" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="V25" t="n">
         <v>14.5</v>
       </c>
       <c r="W25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X25" t="n">
         <v>5.2</v>
@@ -4921,46 +4988,46 @@
         <v>18.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
       </c>
       <c r="AF25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG25" t="n">
         <v>20</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>21</v>
       </c>
       <c r="AH25" t="n">
         <v>28</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
         <v>13</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
         <v>29</v>
@@ -4969,10 +5036,10 @@
         <v>30</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4981,7 +5048,7 @@
         <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV25" t="n">
         <v>9</v>
@@ -4999,7 +5066,7 @@
         <v>6</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>5.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>14</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
@@ -5163,7 +5230,7 @@
         <v>13</v>
       </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
@@ -5181,7 +5248,7 @@
         <v>21</v>
       </c>
       <c r="BA26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5333,13 +5400,13 @@
         <v>8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT27" t="n">
         <v>6</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>4.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF28" t="n">
         <v>5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>4</v>
       </c>
       <c r="AG28" t="n">
         <v>5</v>
@@ -5512,13 +5579,13 @@
         <v>27</v>
       </c>
       <c r="AP28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ28" t="n">
         <v>25</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS28" t="n">
         <v>11</v>
@@ -5527,7 +5594,7 @@
         <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5737,7 @@
         <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>30</v>
@@ -5688,7 +5755,7 @@
         <v>18</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" t="n">
         <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>0.519</v>
+        <v>0.538</v>
       </c>
       <c r="H30" t="n">
         <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J30" t="n">
-        <v>80.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L30" t="n">
         <v>3.8</v>
@@ -5795,28 +5862,28 @@
         <v>0.297</v>
       </c>
       <c r="O30" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P30" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T30" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U30" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="W30" t="n">
         <v>7.9</v>
@@ -5831,25 +5898,25 @@
         <v>22.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>96</v>
+        <v>96.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
       </c>
       <c r="AF30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG30" t="n">
         <v>15</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>5</v>
@@ -5858,7 +5925,7 @@
         <v>10</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>10</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5882,13 +5949,13 @@
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
         <v>18</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
         <v>14</v>
@@ -5909,7 +5976,7 @@
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-9.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6034,7 +6101,7 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
@@ -6058,16 +6125,16 @@
         <v>21</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT31" t="n">
         <v>21</v>
@@ -6088,7 +6155,7 @@
         <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-13-2011-12</t>
+          <t>2012-02-13</t>
         </is>
       </c>
     </row>
